--- a/biology/Botanique/Restionaceae/Restionaceae.xlsx
+++ b/biology/Botanique/Restionaceae/Restionaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Restionacées regroupe des plantes monocotylédones ; elle comprend plus de 300 espèces réparties en plus de trente genres.
 Ce sont des plantes herbacées, xéromorphes, des zones tempérées à tropicales de l'Afrique du Sud et d'Australie pour la plupart, de Madagascar, d'Indochine, de Nouvelle-Zélande ou du Chili pour quelques-unes.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vint du genre Restio dérivant du latin restis, corde, signifiant « fabricant de corde ».
 </t>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG II (2003)[1] et la classification phylogénétique APG III (2009)[2] situent maintenant cette famille dans l'ordre des Poales. Le Angiosperm Phylogeny Website [2 oct 2006] accepte 520 espèces en 58 genres dans cette famille.
-En classification phylogénétique APG IV (2016)[3], cette famille ré-incorpore les Anarthriaceae et Centrolepidaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009) situent maintenant cette famille dans l'ordre des Poales. Le Angiosperm Phylogeny Website [2 oct 2006] accepte 520 espèces en 58 genres dans cette famille.
+En classification phylogénétique APG IV (2016), cette famille ré-incorpore les Anarthriaceae et Centrolepidaceae.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010) :
 Alexgeorgea (en)  Carlquist (1976)
 Anthochortus (en)  Nees ex Endl. (1837)
 Apodasmia (en)  B.G.Briggs &amp; L.A.S.Johnson (1998)
@@ -628,7 +646,7 @@
 Tyrbastes (en)  B.G.Briggs &amp; L.A.S.Johnson (1998)
 Willdenowia  Thunb. (1790)
 Winifredia (en)  L.A.S.Johnson &amp; B.G.Briggs (1986)
-Selon Angiosperm Phylogeny Website                        (17 mai 2010)[5] :
+Selon Angiosperm Phylogeny Website                        (17 mai 2010) :
 Alexgeorgea Carlquist
 Anthochortus Nees
 Askidiosperma Steud.
@@ -668,7 +686,7 @@
 Thamnochortus Bergius
 Willdenowia Thunb.
 Winifredia L.A.S.Johnson &amp; B.G.Briggs
-Selon NCBI  (22 avr. 2010)[6] :
+Selon NCBI  (22 avr. 2010) :
 Acion
 Alexgeorgea
 Anthochortus
@@ -715,7 +733,7 @@
 Tyrbastes
 Willdenowia
 Winifredia
-Selon DELTA Angio           (22 avr. 2010)[7] :
+Selon DELTA Angio           (22 avr. 2010) :
 Alexgeorgia
 Anthochortus
 Askidiosperma
